--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/99/word_level_predictions_99.xlsx
@@ -3073,133 +3073,133 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Precision Landing Correcting Landing Position .</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Landing</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Precision Landing Correcting Landing Position .</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>Precision Landing Correcting Landing Position .</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Landing</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>Precision Landing Correcting Landing Position .</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>Position</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4506,104 +4506,104 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Taking</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4662,106 +4662,106 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" t="n">
         <v>8</v>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>8</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G84" s="2" t="b">
@@ -4813,109 +4813,109 @@
       </c>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8718,156 +8718,156 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>Then</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E160" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr">
+      <c r="I160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>tap</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
+      <c r="I161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>tap</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>11</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>14</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Go</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>12</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="I162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9550,572 +9550,572 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10977,291 +10977,291 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11318,574 +11318,574 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>19</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
-        <v>3</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>19</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>4</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>19</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>5</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>19</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>6</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>19</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>7</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>19</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>8</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>19</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>9</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>19</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
-        <v>10</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12514,158 +12514,158 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>20</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>20</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>20</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/99/word_level_predictions_99.xlsx
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -3097,109 +3097,109 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>Position</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4506,104 +4506,104 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>7</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Taking</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>3</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>7</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>4</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4662,106 +4662,106 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr">
+      <c r="D82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="D83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G84" s="2" t="b">
@@ -4813,109 +4813,109 @@
       </c>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" t="n">
         <v>8</v>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" t="n">
         <v>3</v>
       </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" t="n">
         <v>8</v>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" t="n">
         <v>4</v>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8718,156 +8718,156 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" t="n">
         <v>14</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Then</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" t="n">
         <v>10</v>
       </c>
-      <c r="E160" s="2" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F160" s="2" t="inlineStr">
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>14</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>tap</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>11</v>
+      </c>
+      <c r="E161" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
         <v>14</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
-        <is>
-          <t>tap</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>12</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>Go</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9550,572 +9550,572 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10977,291 +10977,291 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
+      <c r="I206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11318,574 +11318,574 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>19</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>3</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>19</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>4</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>19</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>5</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>19</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>6</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>19</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>7</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>19</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>8</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>19</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>9</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>19</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>10</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12514,158 +12514,158 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>7</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>20</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
